--- a/excel/exported/role_user.xlsx
+++ b/excel/exported/role_user.xlsx
@@ -51,7 +51,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67,68 +67,46 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1003</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1004</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1005</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exported/role_user.xlsx
+++ b/excel/exported/role_user.xlsx
@@ -51,7 +51,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67,46 +67,68 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
+        <v>1003</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>6</v>
+        <v>1004</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
